--- a/outputs-HGR-r202/g__Alistipes.xlsx
+++ b/outputs-HGR-r202/g__Alistipes.xlsx
@@ -2,7 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -10,7 +9,7 @@
     <sheet name="g__Alistipes_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -20,10 +19,7 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,7 +33,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -54,18 +64,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,139 +446,134 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Row</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>1-s__Alistipes communis</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>2-s__Alistipes dispar</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>3-s__Alistipes onderdonkii</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>4-s__Alistipes provencensis</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>5-s__Alistipes putredinis</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>6-s__Alistipes senegalensis</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>7-s__Alistipes shahii</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>8-s__Alistipes sp000434235</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>9-s__Alistipes sp002358415</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>10-s__Alistipes sp900021155</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>11-s__Alistipes sp900290115</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>12-s__Alistipes sp900541585</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>13-s__Alistipes sp900542505</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>14-s__Alistipes sp900544265</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>15-s__Alistipes sp900546065</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>16-s__Alistipes sp900548155</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>17-s__Alistipes sp900549305</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>18-s__Alistipes sp900550375</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>19-s__Alistipes sp900550925</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>20-s__Alistipes sp900552955</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>21-s__Alistipes sp900553175</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>22-s__Alistipes sp902363575</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>23-s__Alistipes timonensis</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT32170.fa</t>
         </is>
@@ -641,17 +647,14 @@
       <c r="X2" t="n">
         <v>0.001106354549153289</v>
       </c>
-      <c r="Y2" t="n">
-        <v>0.9251878833083177</v>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>s__Alistipes dispar</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT33270.fa</t>
         </is>
@@ -725,17 +728,14 @@
       <c r="X3" t="n">
         <v>0.06996170525657641</v>
       </c>
-      <c r="Y3" t="n">
-        <v>0.1828387668702702</v>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>s__Alistipes sp900550375</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT35747.fa</t>
         </is>
@@ -809,17 +809,14 @@
       <c r="X4" t="n">
         <v>0.02953525672649222</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0.7913863255659277</v>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>s__Alistipes sp900550375</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT4979.fa</t>
         </is>
@@ -893,17 +890,14 @@
       <c r="X5" t="n">
         <v>0.1566779035706553</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0.345792262598729</v>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>s__Alistipes sp900552955</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT83643.fa</t>
         </is>
@@ -977,10 +971,7 @@
       <c r="X6" t="n">
         <v>0.08225815358876074</v>
       </c>
-      <c r="Y6" t="n">
-        <v>0.2637792908639498</v>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>s__Alistipes sp900549305</t>
         </is>

--- a/outputs-HGR-r202/g__Alistipes.xlsx
+++ b/outputs-HGR-r202/g__Alistipes.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -9,7 +10,7 @@
     <sheet name="g__Alistipes_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +20,10 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -33,21 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,19 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -437,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,534 +435,584 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Row</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1-s__Alistipes communis</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2-s__Alistipes dispar</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3-s__Alistipes onderdonkii</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4-s__Alistipes provencensis</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5-s__Alistipes putredinis</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>6-s__Alistipes senegalensis</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>7-s__Alistipes shahii</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>8-s__Alistipes sp000434235</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>9-s__Alistipes sp002358415</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10-s__Alistipes sp900021155</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>11-s__Alistipes sp900290115</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>12-s__Alistipes sp900541585</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>13-s__Alistipes sp900542505</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>14-s__Alistipes sp900544265</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>15-s__Alistipes sp900546065</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>16-s__Alistipes sp900548155</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>17-s__Alistipes sp900549305</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>18-s__Alistipes sp900550375</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>19-s__Alistipes sp900550925</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>20-s__Alistipes sp900552955</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>21-s__Alistipes sp900553175</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>22-s__Alistipes sp902363575</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>23-s__Alistipes timonensis</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>prediction</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT32170.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001075548325736244</v>
+        <v>3.01570215021853e-08</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9251878833083177</v>
+        <v>0.8941454261485378</v>
       </c>
       <c r="D2" t="n">
-        <v>9.064284156410875e-05</v>
+        <v>6.743377753511625e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0005662683510468715</v>
+        <v>0.0001523279224343148</v>
       </c>
       <c r="F2" t="n">
-        <v>1.885922904397081e-05</v>
+        <v>6.101848471815323e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001665677064828274</v>
+        <v>0.002988430897472175</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001266058901583037</v>
+        <v>0.004892273158155019</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006182478860842182</v>
+        <v>0.01767659925573612</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003983806287991243</v>
+        <v>0.002055626201824587</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0009357864269956461</v>
+        <v>0.0008967675606502506</v>
       </c>
       <c r="L2" t="n">
-        <v>0.000279372922424478</v>
+        <v>0.0005602416416872042</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04363860916473498</v>
+        <v>0.04834878501694621</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001045907762907546</v>
+        <v>0.005714899872638704</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003816328610162086</v>
+        <v>0.003813135513618678</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0003975118301517336</v>
+        <v>1.816528010399609e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.221113076504794e-14</v>
+        <v>1.726371044102235e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>1.607738119228091e-08</v>
+        <v>1.69165870985205e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.004703543789262e-06</v>
+        <v>5.985870203522216e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>4.058778585059338e-06</v>
+        <v>0.0008634585817201986</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002914036124897114</v>
+        <v>0.002832259681957897</v>
       </c>
       <c r="V2" t="n">
-        <v>0.000679055976951199</v>
+        <v>0.00273553057040436</v>
       </c>
       <c r="W2" t="n">
-        <v>0.008730159560328524</v>
+        <v>0.0099164794567503</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001106354549153289</v>
-      </c>
-      <c r="Y2" t="inlineStr">
+        <v>0.002257234068131589</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.8941454261485378</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>s__Alistipes dispar</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>s__Alistipes dispar</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT33270.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04856281748512226</v>
+        <v>0.002159739869147232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000160110642573685</v>
+        <v>8.6770620965708e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01320292073388666</v>
+        <v>0.00643826447226277</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0174897406223939</v>
+        <v>0.0009414211255517527</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002309943544157186</v>
+        <v>0.0002194813345201406</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0420953309856827</v>
+        <v>0.01447139273830399</v>
       </c>
       <c r="H3" t="n">
-        <v>0.095016384521381</v>
+        <v>0.0676794861173622</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01341955102547436</v>
+        <v>0.04100521416718498</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01120539661954374</v>
+        <v>0.01212711493650196</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09267183056757634</v>
+        <v>0.07171139642755915</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002921069912260929</v>
+        <v>0.001605486143939847</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08091325288324794</v>
+        <v>0.2541025990245865</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02617107613027117</v>
+        <v>0.05217898947659434</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01107663018585771</v>
+        <v>0.008288272898586609</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001012251923667326</v>
+        <v>4.52661085474925e-06</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.619747425126944e-13</v>
+        <v>6.600560090790919e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>9.91081632865614e-05</v>
+        <v>0.0003617017610264113</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1828387668702702</v>
+        <v>0.2992147563041626</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001788115373511775</v>
+        <v>0.008158350681797696</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1305261618598318</v>
+        <v>0.02774776930187785</v>
       </c>
       <c r="V3" t="n">
-        <v>0.08672252396632159</v>
+        <v>0.02955901593421334</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06983531072674271</v>
+        <v>0.05040212959417948</v>
       </c>
       <c r="X3" t="n">
-        <v>0.06996170525657641</v>
-      </c>
-      <c r="Y3" t="inlineStr">
+        <v>0.05161355396168103</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2992147563041626</v>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>s__Alistipes sp900550375</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>s__Alistipes sp900550375(reject)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT35747.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01014760434701835</v>
+        <v>0.00300355458140926</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001589738765276238</v>
+        <v>9.835366641176264e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001049931391909573</v>
+        <v>0.001839540907506739</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002872577013768715</v>
+        <v>0.0003965848481867248</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004478953313691659</v>
+        <v>0.0001667506592191403</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007500191164714322</v>
+        <v>0.005189375558750839</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01409578320329966</v>
+        <v>0.02081233540228063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004423412549154632</v>
+        <v>0.007843416019282203</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001624980934887758</v>
+        <v>0.004139593023864955</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06700548097543814</v>
+        <v>0.02802902607148198</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000491810359994647</v>
+        <v>0.0005892433407854121</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00456515572169393</v>
+        <v>0.07904252662958511</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001753933913390534</v>
+        <v>0.006656551380992698</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001353075602351388</v>
+        <v>0.001090928407525351</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0001467780880189076</v>
+        <v>2.371160601144153e-06</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.30944546211171e-14</v>
+        <v>1.857448176853627e-06</v>
       </c>
       <c r="R4" t="n">
-        <v>3.818459533306299e-05</v>
+        <v>0.0003568547762685928</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7913863255659277</v>
+        <v>0.7749135802913445</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0002615116041306435</v>
+        <v>0.003134954807839704</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04547017676451944</v>
+        <v>0.00847006154835615</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0034431101304253</v>
+        <v>0.001713635915774999</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01620892143382038</v>
+        <v>0.01981885813091499</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02953525672649222</v>
-      </c>
-      <c r="Y4" t="inlineStr">
+        <v>0.03277856372321076</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.7749135802913445</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>s__Alistipes sp900550375</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>s__Alistipes sp900550375</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT4979.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02837324899409509</v>
+        <v>0.001197750539067451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001742299271322002</v>
+        <v>1.875241640537283e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002121885702039865</v>
+        <v>0.001185514074859398</v>
       </c>
       <c r="E5" t="n">
-        <v>0.009748881695028234</v>
+        <v>0.0008668801220169305</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003834538921510818</v>
+        <v>5.612838516488346e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0231116360124745</v>
+        <v>0.00938844197773943</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06613771107687937</v>
+        <v>0.04820900577431773</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00257191761437652</v>
+        <v>0.0231346349221987</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01340417774136411</v>
+        <v>0.01835239908851611</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05671828438771716</v>
+        <v>0.05202307306412485</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005568053269139721</v>
+        <v>0.0006106090335374556</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01819003539759495</v>
+        <v>0.183364678670431</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02960002493091746</v>
+        <v>0.04958546074710409</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004057521795278208</v>
+        <v>0.004336325782506882</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0003862038303309438</v>
+        <v>1.162378429293601e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.812270729787739e-13</v>
+        <v>5.545468167632408e-07</v>
       </c>
       <c r="R5" t="n">
-        <v>1.112710474322051e-05</v>
+        <v>0.000203202473296343</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1447658847160079</v>
+        <v>0.4010181152578227</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001365872616506227</v>
+        <v>0.008979657612437918</v>
       </c>
       <c r="U5" t="n">
-        <v>0.345792262598729</v>
+        <v>0.02612290280846711</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02921702483955753</v>
+        <v>0.02277443828357179</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06663390622932598</v>
+        <v>0.04456179050514299</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1566779035706553</v>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>s__Alistipes sp900552955</t>
+        <v>0.1039980601301612</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.4010181152578227</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>s__Alistipes sp900550375</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>s__Alistipes sp900550375(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT83643.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005499732272887394</v>
+        <v>1.651159837155907e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002921300251953817</v>
+        <v>0.01342685051850668</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2514833465235596</v>
+        <v>0.2112834911318825</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003542454596090902</v>
+        <v>0.0008289593352297193</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0680607493127276</v>
+        <v>0.02778877187660124</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009252013757234289</v>
+        <v>0.01303057122210242</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04619464252917618</v>
+        <v>0.08069269056931572</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0131204061803808</v>
+        <v>0.0289856530261047</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001002783946926064</v>
+        <v>0.009251002512122233</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001522773889060593</v>
+        <v>0.004083679769174923</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02884737299199377</v>
+        <v>0.04816833540345132</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1194730894539908</v>
+        <v>0.3462695784085859</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02305344991733745</v>
+        <v>0.0267546137236849</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003863943577180499</v>
+        <v>0.00303980110370023</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001315452174092353</v>
+        <v>9.028415937107204e-07</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.51954548927277e-14</v>
+        <v>2.22754309040039e-09</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2637792908639498</v>
+        <v>0.01133518025389494</v>
       </c>
       <c r="S6" t="n">
-        <v>9.462316266298397e-06</v>
+        <v>0.0009949958906210312</v>
       </c>
       <c r="T6" t="n">
-        <v>0.005894812944875599</v>
+        <v>0.01875977291691728</v>
       </c>
       <c r="U6" t="n">
-        <v>0.009028474098230493</v>
+        <v>0.007809489315472232</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0003319347694807022</v>
+        <v>0.0001277493669169232</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05954436004377934</v>
+        <v>0.05200881019550972</v>
       </c>
       <c r="X6" t="n">
-        <v>0.08225815358876074</v>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>s__Alistipes sp900549305</t>
+        <v>0.09535908187947018</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.3462695784085859</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>s__Alistipes sp900541585</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>s__Alistipes sp900541585(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Alistipes.xlsx
+++ b/outputs-HGR-r202/g__Alistipes.xlsx
@@ -578,76 +578,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.01570215021853e-08</v>
+        <v>6.946358630368809e-08</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8941454261485378</v>
+        <v>0.8464579177281462</v>
       </c>
       <c r="D2" t="n">
-        <v>6.743377753511625e-05</v>
+        <v>0.0001172283140215871</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001523279224343148</v>
+        <v>0.0006033241662249871</v>
       </c>
       <c r="F2" t="n">
-        <v>6.101848471815323e-06</v>
+        <v>2.180755127309551e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002988430897472175</v>
+        <v>0.004610394594192335</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004892273158155019</v>
+        <v>0.00666261491805025</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01767659925573612</v>
+        <v>0.02712960346555641</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002055626201824587</v>
+        <v>0.001400122675811446</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0008967675606502506</v>
+        <v>0.001613397207955274</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005602416416872042</v>
+        <v>0.0007715227890347318</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04834878501694621</v>
+        <v>0.06964571048974973</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005714899872638704</v>
+        <v>0.008630469428702841</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003813135513618678</v>
+        <v>0.006984425830034661</v>
       </c>
       <c r="P2" t="n">
-        <v>1.816528010399609e-07</v>
+        <v>1.723622281644269e-06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.726371044102235e-09</v>
+        <v>0.0001596803322770884</v>
       </c>
       <c r="R2" t="n">
-        <v>1.69165870985205e-05</v>
+        <v>3.298833977553143e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>5.985870203522216e-05</v>
+        <v>0.0002186496436742417</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0008634585817201986</v>
+        <v>0.0002952560075050024</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002832259681957897</v>
+        <v>0.0003321620978655765</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00273553057040436</v>
+        <v>0.004449528904822396</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0099164794567503</v>
+        <v>0.01512513948538807</v>
       </c>
       <c r="X2" t="n">
-        <v>0.002257234068131589</v>
+        <v>0.004769247985012128</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8941454261485378</v>
+        <v>0.8464579177281462</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
@@ -667,76 +667,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002159739869147232</v>
+        <v>0.003278264221292642</v>
       </c>
       <c r="C3" t="n">
-        <v>8.6770620965708e-06</v>
+        <v>0.000192932904607261</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00643826447226277</v>
+        <v>0.004690242109717784</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0009414211255517527</v>
+        <v>0.002718152392751277</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002194813345201406</v>
+        <v>0.0003579053619592201</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01447139273830399</v>
+        <v>0.01658384116248154</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0676794861173622</v>
+        <v>0.07028710939449581</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04100521416718498</v>
+        <v>0.04344485202478247</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01212711493650196</v>
+        <v>0.007011413861270903</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07171139642755915</v>
+        <v>0.08958715810049166</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001605486143939847</v>
+        <v>0.001809740044307549</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2541025990245865</v>
+        <v>0.2255174313019624</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05217898947659434</v>
+        <v>0.05352142891926306</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008288272898586609</v>
+        <v>0.0187288629487014</v>
       </c>
       <c r="P3" t="n">
-        <v>4.52661085474925e-06</v>
+        <v>4.928556568388818e-06</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.600560090790919e-07</v>
+        <v>0.003344437841985359</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0003617017610264113</v>
+        <v>9.912966471895782e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2992147563041626</v>
+        <v>0.2843477037671522</v>
       </c>
       <c r="T3" t="n">
-        <v>0.008158350681797696</v>
+        <v>0.002113038645871006</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02774776930187785</v>
+        <v>0.00268012490901634</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02955901593421334</v>
+        <v>0.03326073911879996</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05040212959417948</v>
+        <v>0.05390268726132148</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05161355396168103</v>
+        <v>0.08261690602153553</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2992147563041626</v>
+        <v>0.2843477037671522</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
@@ -756,76 +756,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00300355458140926</v>
+        <v>0.004191136301504032</v>
       </c>
       <c r="C4" t="n">
-        <v>9.835366641176264e-06</v>
+        <v>0.0002135788485566959</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001839540907506739</v>
+        <v>0.001343897971833773</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003965848481867248</v>
+        <v>0.001221687740524827</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001667506592191403</v>
+        <v>0.0002726418571840923</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005189375558750839</v>
+        <v>0.006466377284021268</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02081233540228063</v>
+        <v>0.02309691500268318</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007843416019282203</v>
+        <v>0.008017558739295163</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004139593023864955</v>
+        <v>0.00301481758035241</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02802902607148198</v>
+        <v>0.04811608251921651</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005892433407854121</v>
+        <v>0.0006611597217696193</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07904252662958511</v>
+        <v>0.0787075224122122</v>
       </c>
       <c r="N4" t="n">
-        <v>0.006656551380992698</v>
+        <v>0.008293870832088421</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001090928407525351</v>
+        <v>0.002860768183807691</v>
       </c>
       <c r="P4" t="n">
-        <v>2.371160601144153e-06</v>
+        <v>2.099152091687833e-06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.857448176853627e-06</v>
+        <v>0.002752313814669834</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0003568547762685928</v>
+        <v>3.280198093136007e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7749135802913445</v>
+        <v>0.7296484718134911</v>
       </c>
       <c r="T4" t="n">
-        <v>0.003134954807839704</v>
+        <v>0.001984876286258254</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00847006154835615</v>
+        <v>0.0009302634188396873</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001713635915774999</v>
+        <v>0.002169782344385725</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01981885813091499</v>
+        <v>0.02343007010167803</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03277856372321076</v>
+        <v>0.0526037800537265</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7749135802913445</v>
+        <v>0.7296484718134911</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
@@ -845,76 +845,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001197750539067451</v>
+        <v>0.001841765485585661</v>
       </c>
       <c r="C5" t="n">
-        <v>1.875241640537283e-05</v>
+        <v>0.0003603552550929946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001185514074859398</v>
+        <v>0.001213980928324689</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0008668801220169305</v>
+        <v>0.002616900043366159</v>
       </c>
       <c r="F5" t="n">
-        <v>5.612838516488346e-05</v>
+        <v>0.0001084065815948987</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00938844197773943</v>
+        <v>0.01112294659557851</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04820900577431773</v>
+        <v>0.05351126114718958</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0231346349221987</v>
+        <v>0.02212852771380033</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01835239908851611</v>
+        <v>0.0139330550162166</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05202307306412485</v>
+        <v>0.07765697771150237</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006106090335374556</v>
+        <v>0.0007095615120168049</v>
       </c>
       <c r="M5" t="n">
-        <v>0.183364678670431</v>
+        <v>0.1695198125301027</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04958546074710409</v>
+        <v>0.05718644029918218</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004336325782506882</v>
+        <v>0.01508384047849206</v>
       </c>
       <c r="P5" t="n">
-        <v>1.162378429293601e-05</v>
+        <v>4.244411476165755e-06</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.545468167632408e-07</v>
+        <v>0.002920315671308845</v>
       </c>
       <c r="R5" t="n">
-        <v>0.000203202473296343</v>
+        <v>6.9386191654156e-09</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4010181152578227</v>
+        <v>0.3388400279781719</v>
       </c>
       <c r="T5" t="n">
-        <v>0.008979657612437918</v>
+        <v>0.004332840715275002</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02612290280846711</v>
+        <v>0.00450694498555864</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02277443828357179</v>
+        <v>0.02271370355612649</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04456179050514299</v>
+        <v>0.05027417725535761</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1039980601301612</v>
+        <v>0.1494139071900604</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4010181152578227</v>
+        <v>0.3388400279781719</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
@@ -934,76 +934,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.651159837155907e-08</v>
+        <v>2.597999147097028e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01342685051850668</v>
+        <v>0.03235953838944323</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2112834911318825</v>
+        <v>0.2270135461905576</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0008289593352297193</v>
+        <v>0.002075766620216034</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02778877187660124</v>
+        <v>0.03389380927332136</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01303057122210242</v>
+        <v>0.01325443438609501</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08069269056931572</v>
+        <v>0.08120779571248049</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0289856530261047</v>
+        <v>0.04085836123276304</v>
       </c>
       <c r="J6" t="n">
-        <v>0.009251002512122233</v>
+        <v>0.0008458688020984875</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004083679769174923</v>
+        <v>0.008084070211924107</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04816833540345132</v>
+        <v>0.05125791336015467</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3462695784085859</v>
+        <v>0.2981295949332692</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0267546137236849</v>
+        <v>0.02623305278559948</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00303980110370023</v>
+        <v>0.005812999326166133</v>
       </c>
       <c r="P6" t="n">
-        <v>9.028415937107204e-07</v>
+        <v>8.021146163680817e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22754309040039e-09</v>
+        <v>0.0003969596314925945</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01133518025389494</v>
+        <v>0.01964556094578927</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0009949958906210312</v>
+        <v>0.00176864055472477</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01875977291691728</v>
+        <v>0.007272415941310085</v>
       </c>
       <c r="U6" t="n">
-        <v>0.007809489315472232</v>
+        <v>0.001068170994888574</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0001277493669169232</v>
+        <v>9.538838585965979e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05200881019550972</v>
+        <v>0.05223052345490841</v>
       </c>
       <c r="X6" t="n">
-        <v>0.09535908187947018</v>
+        <v>0.09641535142530952</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3462695784085859</v>
+        <v>0.2981295949332692</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>

--- a/outputs-HGR-r202/g__Alistipes.xlsx
+++ b/outputs-HGR-r202/g__Alistipes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -649,6 +654,11 @@
           <t>s__Alistipes dispar</t>
         </is>
       </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>s__Alistipes dispar</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -733,6 +743,11 @@
           <t>s__Alistipes sp900550375</t>
         </is>
       </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>s__Alistipes sp900550375(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -817,6 +832,11 @@
           <t>s__Alistipes sp900550375</t>
         </is>
       </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>s__Alistipes sp900550375</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -901,6 +921,11 @@
           <t>s__Alistipes sp900541585</t>
         </is>
       </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>s__Alistipes sp900541585(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -985,6 +1010,11 @@
           <t>s__Alistipes sp900550375</t>
         </is>
       </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>s__Alistipes sp900550375(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1069,6 +1099,11 @@
           <t>s__Alistipes sp900550925</t>
         </is>
       </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>s__Alistipes sp900550925(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1151,6 +1186,11 @@
       <c r="Z8" t="inlineStr">
         <is>
           <t>s__Alistipes sp900541585</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>s__Alistipes sp900541585(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Alistipes.xlsx
+++ b/outputs-HGR-r202/g__Alistipes.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>s__Alistipes sp900541585</t>
+          <t>s__Alistipes sp900541585(reject)</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>s__Alistipes sp900550375</t>
+          <t>s__Alistipes sp900550375(reject)</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>s__Alistipes sp900550375</t>
+          <t>s__Alistipes sp900550375(reject)</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>s__Alistipes sp900541585</t>
+          <t>s__Alistipes sp900541585(reject)</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>s__Alistipes sp900541585</t>
+          <t>s__Alistipes sp900541585(reject)</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>s__Alistipes sp900541585</t>
+          <t>s__Alistipes sp900541585(reject)</t>
         </is>
       </c>
     </row>
